--- a/hardware/Bill of Materials/sentinair bill of materials typical.xlsx
+++ b/hardware/Bill of Materials/sentinair bill of materials typical.xlsx
@@ -142,12 +142,6 @@
     <t>programming cable</t>
   </si>
   <si>
-    <t>see    lcss board bom.xlsx   file</t>
-  </si>
-  <si>
-    <t>see    lcss programming cable bom.xlsx   file</t>
-  </si>
-  <si>
     <t>SD card 8 Gb class 10</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>Bill of Materials of SentinAir in typical hardware configuration</t>
+  </si>
+  <si>
+    <t>see    lcss board bill of materials.xlsx   file</t>
+  </si>
+  <si>
+    <t>see    lcss programming cable bill of materials.xlsx   file</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -851,7 +851,7 @@
         <v>92.97</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -873,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2">
         <v>8.1</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7">
